--- a/data_year/zb/固定资产投资和房地产/三次产业固定资产（不含农户）投资额及增速.xlsx
+++ b/data_year/zb/固定资产投资和房地产/三次产业固定资产（不含农户）投资额及增速.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,445 +468,326 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>518.387251520376</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>2492.56391229318</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12.2536224738429</v>
+      </c>
       <c r="D2" t="n">
-        <v>27759.1043974426</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>114824.520964043</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22.7602914902086</v>
+      </c>
       <c r="F2" t="n">
-        <v>16111.66956688</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>72647.08403763091</v>
+      </c>
+      <c r="G2" t="n">
+        <v>18.748412724136</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>595.360020057379</v>
+        <v>3712.32090176592</v>
       </c>
       <c r="C3" t="n">
-        <v>14.8485072330097</v>
+        <v>16.4236075064541</v>
       </c>
       <c r="D3" t="n">
-        <v>33862.3471524481</v>
+        <v>138609.239794365</v>
       </c>
       <c r="E3" t="n">
-        <v>21.9864541291461</v>
+        <v>20.8105180764834</v>
       </c>
       <c r="F3" t="n">
-        <v>21017.2534251441</v>
+        <v>87371.4276553064</v>
       </c>
       <c r="G3" t="n">
-        <v>30.4473961429067</v>
+        <v>19.6672158758922</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>726.675724649828</v>
+        <v>4441.51853085208</v>
       </c>
       <c r="C4" t="n">
-        <v>22.0565204529174</v>
+        <v>19.642634577719</v>
       </c>
       <c r="D4" t="n">
-        <v>40199.1484291887</v>
+        <v>167781.318076126</v>
       </c>
       <c r="E4" t="n">
-        <v>18.7134141889585</v>
+        <v>21.0462724743599</v>
       </c>
       <c r="F4" t="n">
-        <v>27588.0203273874</v>
+        <v>99620.3356204148</v>
       </c>
       <c r="G4" t="n">
-        <v>31.2636802218045</v>
+        <v>14.0193519710268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>897.954669766312</v>
+        <v>5399.30958422148</v>
       </c>
       <c r="C5" t="n">
-        <v>23.5702032290979</v>
+        <v>21.5644952670197</v>
       </c>
       <c r="D5" t="n">
-        <v>48669.5555198215</v>
+        <v>201495.984476451</v>
       </c>
       <c r="E5" t="n">
-        <v>21.0711107613474</v>
+        <v>20.0944102638578</v>
       </c>
       <c r="F5" t="n">
-        <v>33262.9750913028</v>
+        <v>111876.323291227</v>
       </c>
       <c r="G5" t="n">
-        <v>20.5703587882372</v>
+        <v>12.3026966276358</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1096.01222516124</v>
+        <v>6613.1086079386</v>
       </c>
       <c r="C6" t="n">
-        <v>22.0565204529168</v>
+        <v>22.4806339548343</v>
       </c>
       <c r="D6" t="n">
-        <v>59114.282648871</v>
+        <v>233858.189029751</v>
       </c>
       <c r="E6" t="n">
-        <v>21.4604941785337</v>
+        <v>16.0609674864673</v>
       </c>
       <c r="F6" t="n">
-        <v>41001.3056316917</v>
+        <v>122409.847260109</v>
       </c>
       <c r="G6" t="n">
-        <v>23.2640962486011</v>
+        <v>9.41532905176194</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1587.51511804684</v>
+        <v>8095.11694355379</v>
       </c>
       <c r="C7" t="n">
-        <v>44.8446542476561</v>
+        <v>22.4101617480792</v>
       </c>
       <c r="D7" t="n">
-        <v>72481.2485671247</v>
+        <v>257865.42091689</v>
       </c>
       <c r="E7" t="n">
-        <v>22.6120749830481</v>
+        <v>10.2657221398755</v>
       </c>
       <c r="F7" t="n">
-        <v>50364.8474680355</v>
+        <v>129557.313871767</v>
       </c>
       <c r="G7" t="n">
-        <v>22.8371796753377</v>
+        <v>5.83896375303068</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2220.47525715617</v>
+        <v>9145.816795025519</v>
       </c>
       <c r="C8" t="n">
-        <v>39.8711251259186</v>
+        <v>12.9794277068278</v>
       </c>
       <c r="D8" t="n">
-        <v>93535.5558138288</v>
+        <v>282385.880498471</v>
       </c>
       <c r="E8" t="n">
-        <v>29.0479367600929</v>
+        <v>9.509014234787189</v>
       </c>
       <c r="F8" t="n">
-        <v>61177.309549726</v>
+        <v>132866.91588268</v>
       </c>
       <c r="G8" t="n">
-        <v>21.4682712750252</v>
+        <v>2.55454664195092</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2492.56391229318</v>
+        <v>9809.67846391127</v>
       </c>
       <c r="C9" t="n">
-        <v>12.2536224738429</v>
+        <v>7.25863729576159</v>
       </c>
       <c r="D9" t="n">
-        <v>114824.520964043</v>
+        <v>305949.493576743</v>
       </c>
       <c r="E9" t="n">
-        <v>22.7602914902086</v>
+        <v>8.34447283153013</v>
       </c>
       <c r="F9" t="n">
-        <v>72647.08403763091</v>
+        <v>135970.136305944</v>
       </c>
       <c r="G9" t="n">
-        <v>18.748412724136</v>
+        <v>2.33558550121242</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3712.32090176592</v>
+        <v>11075.1269857558</v>
       </c>
       <c r="C10" t="n">
-        <v>16.4236075064541</v>
+        <v>12.9</v>
       </c>
       <c r="D10" t="n">
-        <v>138609.239794365</v>
+        <v>322930.647341857</v>
       </c>
       <c r="E10" t="n">
-        <v>20.8105180764834</v>
+        <v>5.55031275476014</v>
       </c>
       <c r="F10" t="n">
-        <v>87371.4276553064</v>
+        <v>144454.672811435</v>
       </c>
       <c r="G10" t="n">
-        <v>19.6672158758922</v>
+        <v>6.24000000000007</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4441.51853085208</v>
+        <v>11136.0401841775</v>
       </c>
       <c r="C11" t="n">
-        <v>19.642634577719</v>
+        <v>0.550000000000381</v>
       </c>
       <c r="D11" t="n">
-        <v>167781.318076126</v>
+        <v>344071.283532823</v>
       </c>
       <c r="E11" t="n">
-        <v>21.0462724743599</v>
+        <v>6.54649422870861</v>
       </c>
       <c r="F11" t="n">
-        <v>99620.3356204148</v>
+        <v>149004.995004995</v>
       </c>
       <c r="G11" t="n">
-        <v>14.0193519710268</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5399.30958422148</v>
+        <v>13302</v>
       </c>
       <c r="C12" t="n">
-        <v>21.5644952670197</v>
+        <v>19.5</v>
       </c>
       <c r="D12" t="n">
-        <v>201495.984476451</v>
+        <v>356451</v>
       </c>
       <c r="E12" t="n">
-        <v>20.0944102638578</v>
+        <v>3.59800920904112</v>
       </c>
       <c r="F12" t="n">
-        <v>111876.323291227</v>
+        <v>149154</v>
       </c>
       <c r="G12" t="n">
-        <v>12.3026966276358</v>
+        <v>0.100000000000009</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6613.1086079386</v>
+        <v>14275</v>
       </c>
       <c r="C13" t="n">
-        <v>22.4806339548343</v>
+        <v>9.1</v>
       </c>
       <c r="D13" t="n">
-        <v>233858.189029751</v>
+        <v>362877</v>
       </c>
       <c r="E13" t="n">
-        <v>16.0609674864673</v>
+        <v>2.1</v>
       </c>
       <c r="F13" t="n">
-        <v>122409.847260109</v>
+        <v>167395</v>
       </c>
       <c r="G13" t="n">
-        <v>9.41532905176194</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8095.11694355379</v>
+        <v>14293</v>
       </c>
       <c r="C14" t="n">
-        <v>22.4101617480792</v>
+        <v>0.2</v>
       </c>
       <c r="D14" t="n">
-        <v>257865.42091689</v>
+        <v>373842</v>
       </c>
       <c r="E14" t="n">
-        <v>10.2657221398755</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>129557.313871767</v>
+        <v>184004</v>
       </c>
       <c r="G14" t="n">
-        <v>5.83896375303068</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9145.816795025519</v>
-      </c>
-      <c r="C15" t="n">
-        <v>12.9794277068278</v>
-      </c>
-      <c r="D15" t="n">
-        <v>282385.880498471</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9.509014234787189</v>
-      </c>
-      <c r="F15" t="n">
-        <v>132866.91588268</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.55454664195092</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>9809.67846391127</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7.25863729576159</v>
-      </c>
-      <c r="D16" t="n">
-        <v>305949.493576743</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8.34447283153013</v>
-      </c>
-      <c r="F16" t="n">
-        <v>135970.136305944</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.33558550121242</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>11075.1269857558</v>
-      </c>
-      <c r="C17" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>322930.647341857</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5.55031275476014</v>
-      </c>
-      <c r="F17" t="n">
-        <v>144454.672811435</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6.24000000000007</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>11136.0401841775</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.550000000000381</v>
-      </c>
-      <c r="D18" t="n">
-        <v>344071.283532823</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6.54649422870861</v>
-      </c>
-      <c r="F18" t="n">
-        <v>149004.995004995</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>13302</v>
-      </c>
-      <c r="C19" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>356451</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3.59800920904112</v>
-      </c>
-      <c r="F19" t="n">
-        <v>149154</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.100000000000009</v>
+        <v>10.3</v>
       </c>
     </row>
   </sheetData>
